--- a/pred_ohlcv/54_21/2020-01-16 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZRX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-1039.189699999994</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2292.837443511457</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1926.054043511456</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1515.322156488544</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1148.538756488544</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1589.538656488544</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2986.249356488544</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2989.344456488544</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3120.344456488544</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2788.011156488544</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3354.619156488544</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1796.927856488544</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-652.811956488544</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-737.433556488544</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-262.399156488544</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-511.733956488544</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-761.3233564885441</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>743.6870648112509</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-782.3663351887491</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-19.33963518874907</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10593.34036481125</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>8830.31366481125</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>8996.71366481125</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ZRX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-1039.189699999994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1050.105799999993</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1270.306799999993</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1270.306799999993</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1260.306799999993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1105.187099999994</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2463.895443511457</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2312.610643511457</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2292.837443511457</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1926.054043511456</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1515.322156488544</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1148.538756488544</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1589.538656488544</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-737.433556488544</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-262.399156488544</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-511.733956488544</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-761.3233564885441</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>747.0081648112509</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>743.6870648112509</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-782.3663351887491</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-19.33963518874907</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10593.34036481125</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>8830.31366481125</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>8996.71366481125</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
